--- a/biology/Histoire de la zoologie et de la botanique/Henri_Pittier/Henri_Pittier.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henri_Pittier/Henri_Pittier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri François Pittier, né à Bex le 13 août 1857 et mort le 27 janvier 1950 à Caracas, est un géographe, naturaliste et botaniste suisse, émigré au Costa Rica en 1887 où il a fondé l'Institut géographique physique, puis au Venezuela. Le parc national Henri Pittier, premier parc national du Venezuela, a été nommé en son honneur.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La vie en Suisse et en Europe d'Henri Pittier est peu connue, si ce n'est qu'il a poursuivi ses études au Polytechikum de Zurich à l'université d'Iéna en Allemagne dont il sort avec un diplôme d'ingénieur civil et un titre de docteur en philosophie en 1885. Il enseigne ensuite les sciences naturelles au collège de Château-d'Œx, puis au département de géographie de l'université de Lausanne, qui lui confère le titre de docteur honoris causa en sciences. Au milieu des années 1880, il effectue une expédition botanique au bord de la Méditerranée et au Levant.
 Il part pour le Costa Rica en 1887, où il fonde un observatoire météorologique, puis il fonde l'Institut géographique physique qui comprend une station météorologique, un service de géographie et un musée d'histoire naturelle. Il fait publier également un bulletin scientifique attaché à cet institut. En plus d'étudier la flore et la faune de ce pays, il le cartographie et intervient dans la définition du tracé des lignes de chemin de fer et des routes du pays.
@@ -549,7 +563,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1908. Ensayo sobre las plantas usuales de Costa Rica. H. L. J. B. McQueen. Washington, D. C.
 1918. Our present knowledge of the forest formation of the Isthmus of Panama // J. of Forestry 16 (1): 76-84
@@ -567,9 +583,7 @@
 1939. Clave analítica de las familias de plantas superiores de la América Tropical. Caracas
 1939. Suplemento a las plantas usuales de Venezuela. Elite. Caracas. 129 pp.
 1942. La mesa de Guanipa; ensayo de fitogeografia. Tipografía Garrido. Caracas
-1943. El Herbario del Servicio Botánico del Ministerio de Agricultura y Cría // El Agricultor Venezolano. 7 (85-86): 21-27
-Liste d'œuvres en ligne
-Liste donnée par worldcat.org</t>
+1943. El Herbario del Servicio Botánico del Ministerio de Agricultura y Cría // El Agricultor Venezolano. 7 (85-86): 21-27</t>
         </is>
       </c>
     </row>
@@ -594,10 +608,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Quelques publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste d'œuvres en ligne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Liste donnée par worldcat.org</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Henri_Pittier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henri_Pittier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Source et bibliographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Fonds=Pittier (Henri) (1884-2003) [0,20 ml. Les lettres ont été réunies par les auteurs de la monographie de 2000, sous forme de photocopies]. Collection : Archives privées; Cote CH-000053-1 PP 812. Archives cantonales vaudoises (présentation en ligne= https://davel.vd.ch/detail.aspx?ID=51415]
 Joëlle Magnin-Gonze, Henri Pittier le « Humboldt suisse », Lausanne, Musée et jardins botaniques cantonaux, coll. « Portrait de botanique » (no 57), 2019, 52 p.
